--- a/biology/Botanique/Phycodrys_rubens/Phycodrys_rubens.xlsx
+++ b/biology/Botanique/Phycodrys_rubens/Phycodrys_rubens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phycodrys rubens est une espèce d'algues rouges de la famille des Delesseriaceae. Elle est aussi connue sous le nom d'algue feuille de chêne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phycodrys rubens est une espèce d'algues rouges de la famille des Delesseriaceae. Elle est aussi connue sous le nom d'algue feuille de chêne.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle présente un thalle semblable à une feuille de chêne de couleur rouge[2], d'où son nom vernaculaire. Cette partie peut atteindre 30 cm de long[1].
-Les feuilles, à proprement parler, peuvent atteindre jusqu'à 6 cm de long et 3 cm de large[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle présente un thalle semblable à une feuille de chêne de couleur rouge, d'où son nom vernaculaire. Cette partie peut atteindre 30 cm de long.
+Les feuilles, à proprement parler, peuvent atteindre jusqu'à 6 cm de long et 3 cm de large.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette algue a été observée, entre autres, près des côtes de France métropolitaine et de Saint-Pierre-et-Miquelon[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette algue a été observée, entre autres, près des côtes de France métropolitaine et de Saint-Pierre-et-Miquelon.
 </t>
         </is>
       </c>
